--- a/Jogos_do_Dia/2024-02-07_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2024-02-07_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -691,13 +691,13 @@
         <v>4</v>
       </c>
       <c r="J2" t="n">
-        <v>2.27</v>
+        <v>2</v>
       </c>
       <c r="K2" t="n">
-        <v>3.19</v>
+        <v>3.25</v>
       </c>
       <c r="L2" t="n">
-        <v>3.19</v>
+        <v>3.7</v>
       </c>
       <c r="M2" t="n">
         <v>1.44</v>
@@ -739,10 +739,10 @@
         <v>1.7</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.4</v>
+        <v>0.45</v>
       </c>
       <c r="AB2" t="n">
         <v>1.43</v>
@@ -830,13 +830,13 @@
         <v>5.75</v>
       </c>
       <c r="J3" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="K3" t="n">
-        <v>3.48</v>
+        <v>3.5</v>
       </c>
       <c r="L3" t="n">
-        <v>4.55</v>
+        <v>5</v>
       </c>
       <c r="M3" t="n">
         <v>1.43</v>
@@ -857,10 +857,10 @@
         <v>2.98</v>
       </c>
       <c r="S3" t="n">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="T3" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="U3" t="n">
         <v>2</v>
@@ -969,13 +969,13 @@
         <v>2.6</v>
       </c>
       <c r="J4" t="n">
-        <v>3.63</v>
+        <v>3.8</v>
       </c>
       <c r="K4" t="n">
-        <v>3.29</v>
+        <v>3.4</v>
       </c>
       <c r="L4" t="n">
-        <v>1.87</v>
+        <v>2</v>
       </c>
       <c r="M4" t="n">
         <v>1.42</v>
@@ -996,10 +996,10 @@
         <v>3.17</v>
       </c>
       <c r="S4" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="T4" t="n">
-        <v>1.66</v>
+        <v>1.62</v>
       </c>
       <c r="U4" t="n">
         <v>1.86</v>
@@ -1108,13 +1108,13 @@
         <v>4.01</v>
       </c>
       <c r="J5" t="n">
-        <v>2.11</v>
+        <v>2.25</v>
       </c>
       <c r="K5" t="n">
-        <v>3.14</v>
+        <v>3.3</v>
       </c>
       <c r="L5" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M5" t="n">
         <v>1.44</v>
@@ -1135,10 +1135,10 @@
         <v>2.93</v>
       </c>
       <c r="S5" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="T5" t="n">
-        <v>1.66</v>
+        <v>1.6</v>
       </c>
       <c r="U5" t="n">
         <v>1.87</v>
@@ -1247,13 +1247,13 @@
         <v>1.76</v>
       </c>
       <c r="J6" t="n">
-        <v>7.54</v>
+        <v>8.5</v>
       </c>
       <c r="K6" t="n">
-        <v>5.03</v>
+        <v>5.5</v>
       </c>
       <c r="L6" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="M6" t="n">
         <v>1.25</v>
